--- a/biology/Médecine/Régime_athérogène/Régime_athérogène.xlsx
+++ b/biology/Médecine/Régime_athérogène/Régime_athérogène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_ath%C3%A9rog%C3%A8ne</t>
+          <t>Régime_athérogène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un régime athérogène est un régime qui induit une maladie dans un animal par exemple.
 Le régime occidental, riche en graisses saturées et en gras trans (hydrogénation des acides gras par l'industrie), est un régime athérogène.
